--- a/ESTADO DEL ARTE/Papers_matrix.xlsx
+++ b/ESTADO DEL ARTE/Papers_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\ESTADO DEL ARTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C34AD9-CC7B-4A0D-BCE5-12F1A51DB74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC61F0A-9986-4525-A5E3-5A6980580362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="0" windowWidth="11868" windowHeight="12336" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -1273,25 +1273,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B47B4E-41B2-4003-87EA-548BB9D10129}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="0.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0.5546875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.21875" customWidth="1"/>
-    <col min="10" max="10" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="51.44140625" style="1" customWidth="1"/>
@@ -1300,7 +1301,7 @@
     <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="374.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="403.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="56.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2100,7 +2101,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25" xr:uid="{C4B47B4E-41B2-4003-87EA-548BB9D10129}"/>
+  <autoFilter ref="A1:N25" xr:uid="{C4B47B4E-41B2-4003-87EA-548BB9D10129}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2,4,5,6,15,16"/>
+        <filter val="2,4,5,6,7,9,10,15,16,19"/>
+        <filter val="2,4,5,6,9,10,14,15,16,18,20,21"/>
+        <filter val="2,6,9,10,15,16"/>
+        <filter val="4,5,6,9,10,16"/>
+        <filter val="5,6,15,16,10,14"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{DB03C728-CAC1-406E-8437-891A86C4A54E}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{8D41716A-863A-47DB-A9FE-1A4A433FF4D8}"/>

--- a/ESTADO DEL ARTE/Papers_matrix.xlsx
+++ b/ESTADO DEL ARTE/Papers_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\ESTADO DEL ARTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC61F0A-9986-4525-A5E3-5A6980580362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98AB937-068C-4715-AEE4-2A5AF43F67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" xr2:uid="{AF968CF0-FCCF-48BE-83BB-B112A8D1796D}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -1277,14 +1277,14 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" style="5" customWidth="1"/>
@@ -1301,7 +1301,7 @@
     <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="403.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="56.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="112.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2104,12 +2104,8 @@
   <autoFilter ref="A1:N25" xr:uid="{C4B47B4E-41B2-4003-87EA-548BB9D10129}">
     <filterColumn colId="2">
       <filters>
-        <filter val="2,4,5,6,15,16"/>
-        <filter val="2,4,5,6,7,9,10,15,16,19"/>
-        <filter val="2,4,5,6,9,10,14,15,16,18,20,21"/>
-        <filter val="2,6,9,10,15,16"/>
-        <filter val="4,5,6,9,10,16"/>
-        <filter val="5,6,15,16,10,14"/>
+        <filter val="Encuestas para medir percepción del cliente"/>
+        <filter val="Encuestas para obtener percepción del cliente"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2322,7 +2318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -2330,7 +2326,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>223</v>
       </c>
